--- a/Documentacion/HorasFede.xlsx
+++ b/Documentacion/HorasFede.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\fede\Proyecto final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Github\ProyectoFinal\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11580" windowHeight="6795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11580" windowHeight="6792"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>Horas trabajadas</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Riesgos</t>
+  </si>
+  <si>
+    <t>Plan de proyecto, Metodologías, Cilco de vida, incremento o itereaciones definidas, integrantes y roles, descripción y selección de herramientas</t>
   </si>
 </sst>
 </file>
@@ -390,21 +393,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" customWidth="1"/>
-    <col min="5" max="5" width="124.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" customWidth="1"/>
+    <col min="5" max="5" width="124.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -421,7 +424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -435,7 +438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -452,7 +455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -469,7 +472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -483,7 +486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -500,7 +503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -514,7 +517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -531,7 +534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -548,7 +551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>42835</v>
       </c>
@@ -562,7 +565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>42835</v>
       </c>
@@ -574,6 +577,20 @@
       </c>
       <c r="E11" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>42836</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Documentacion/HorasFede.xlsx
+++ b/Documentacion/HorasFede.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>Horas trabajadas</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>Plan de proyecto, Metodologías, Cilco de vida, incremento o itereaciones definidas, integrantes y roles, descripción y selección de herramientas</t>
+  </si>
+  <si>
+    <t>Plan de SQA, estandares definidos y convenciones</t>
+  </si>
+  <si>
+    <t>Plan de testing, Pland de SCM, Plan de capacitación. Documentación de EncuestaUsuarios1</t>
   </si>
 </sst>
 </file>
@@ -393,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,6 +558,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
       <c r="B10" s="1">
         <v>42835</v>
       </c>
@@ -566,6 +575,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
       <c r="B11" s="1">
         <v>42835</v>
       </c>
@@ -580,6 +592,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
       <c r="B12" s="1">
         <v>42836</v>
       </c>
@@ -591,6 +606,37 @@
       </c>
       <c r="E12" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1">
+        <v>42837</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>42838</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
